--- a/biology/Histoire de la zoologie et de la botanique/Robert_Harding_Whittaker/Robert_Harding_Whittaker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Harding_Whittaker/Robert_Harding_Whittaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Harding Whittaker est un écologue et un botaniste américain, né le 27 décembre 1920 à Wichita au Kansas et mort le 20 octobre 1980.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts au Washburn Municipal College (aujourd’hui l’université Washburn) à Topeka. Après son service militaire, il obtient son Ph. D. à l’université de l'Illinois. Il obtient un poste d’enseignement et de recherche à l’université d’État de Washington à Hanford, puis dans les laboratoires nationaux d’Hanford (où il est l’un des pionniers de l’emploi de traceurs radioactifs pour l’étude des écosystèmes), au Brooklyn College, l’université de Californie et, enfin, à l’université Cornell.
 Très productif, Whittaker développe et promeut l’analyse graduelle appliquée à l’écologie des communautés végétales. Cette analyse permet d’obtenir des résultats empiriques contredisant certaines des idées sur le développement des végétaux soutenues par Frederic Edward Clements (1874-1945). Whittaker étudie surtout l’analyse des communautés végétales, leur succession et leur productivité. 
@@ -544,12 +558,14 @@
           <t>Classification taxonomique du vivant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959, Whittaker développait un système de classification des organismes constitué de quatre règnes : Protista, Plantae, Fungi et Animalia.
 Le règne des protistes était alors divisé en deux sous-règnes, Monera pour les bactéries et les algues bleu-vert et Eunucleata pour les organismes unicellulaires à membrane nucléaire.
 Robert Whittaker est l'un des premiers (en 1969) à proposer une classification du vivant en cinq règnes : Animalia, Plantae, Fungi, Protista et Monera.
-Sa classification taxonomique est basée sur trois niveaux d'organisation (procaryote, eucaryote unicellulaire et eucaryote multicellulaire-multinucléé) et trois directions d'évolution en relation avec la nutrition (photosynthèse, absorption et ingestion)[1].
+Sa classification taxonomique est basée sur trois niveaux d'organisation (procaryote, eucaryote unicellulaire et eucaryote multicellulaire-multinucléé) et trois directions d'évolution en relation avec la nutrition (photosynthèse, absorption et ingestion).
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>R.H. Whittaker, « The kingdoms of the living world », Ecology, vol. 38, no 3, juillet 1957, p. 536-538, DOI 10.2307/1929903.
 R.H. Whittaker, « On the broad classification of organisms », The Quarterly Review of Biology, vol. 34, no 3, septembre 1959, p. 210-226, DOI 10.1086/402733.
